--- a/user-roles-codebook.xlsx
+++ b/user-roles-codebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshuarosenberg/Documents/eloned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3FABF6-73B1-9843-802B-A91A826CE073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCBF05-6F98-FF40-B5E7-FBB59B7BF87C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{2C0FC24F-3A4C-9C4F-8B37-ED7343C08C92}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Elon teacher educator</t>
   </si>
@@ -51,75 +51,12 @@
     <t>Higher education, not Elon</t>
   </si>
   <si>
-    <t>Faculty or staff at other institutions</t>
-  </si>
-  <si>
     <t>Elon P-12 teacher education student, while undergrad</t>
   </si>
   <si>
     <t>All majors</t>
   </si>
   <si>
-    <t>Elon undergrad, non-education major</t>
-  </si>
-  <si>
-    <t>Ex: student enrolled in #EDU372 Garden-Based Learning as an HSS major, or a minor in education  </t>
-  </si>
-  <si>
-    <t>Elon student, while masters</t>
-  </si>
-  <si>
-    <t>Elon alum (undergrad or masters)</t>
-  </si>
-  <si>
-    <t>Elon cooperating teacher (not alum)</t>
-  </si>
-  <si>
-    <t>P-12 Teacher (not CT)</t>
-  </si>
-  <si>
-    <t>P-12 Administrator</t>
-  </si>
-  <si>
-    <t>Principals, assistant principals, superintendents, district-level directors</t>
-  </si>
-  <si>
-    <t>P-12 Instructional support</t>
-  </si>
-  <si>
-    <t>Technology coaches, instructional coaches, curriculum facilitators or developers, professional development coordinators, including media specialist &amp; librarians</t>
-  </si>
-  <si>
-    <t>P-12 education connected (aka other)</t>
-  </si>
-  <si>
-    <t>Concerned with education but with unspecified role or role other than teacher, administrator, instructional support</t>
-  </si>
-  <si>
-    <t>Educational institution</t>
-  </si>
-  <si>
-    <t>Accounts associated with schools, districts, related government body, or subunits within the institution (e.g., classroom accounts, clubs, sports teams, programs at a district level)</t>
-  </si>
-  <si>
-    <t>Educational non-profit organization</t>
-  </si>
-  <si>
-    <t>Accounts associated with non-profit organizations associated in some way with education, including teacher unions</t>
-  </si>
-  <si>
-    <t>Educational for-profit organization</t>
-  </si>
-  <si>
-    <t>Accounts associated with for-profit organizations associated in some way with education</t>
-  </si>
-  <si>
-    <t>Student, not at Elon</t>
-  </si>
-  <si>
-    <t>P-20+ students, including education majors, and graduate students, not at Elon</t>
-  </si>
-  <si>
     <t>Unclear</t>
   </si>
   <si>
@@ -130,6 +67,30 @@
   </si>
   <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Faculty, staff, students, at other institutions</t>
+  </si>
+  <si>
+    <t>Elon students, not undergrad teacher education students</t>
+  </si>
+  <si>
+    <t>Ex: student enrolled in #EDU372 Garden-Based Learning as an HSS major, or a minor in education, masters student</t>
+  </si>
+  <si>
+    <t>Elon alum </t>
+  </si>
+  <si>
+    <t>Educational institution or organizations</t>
+  </si>
+  <si>
+    <t>Accounts associated with schools, districts, related government body, or subunits within the institution (e.g., classroom accounts, clubs, sports teams, programs at a district level), non-profit organizations associated in some way with education, including teacher unions, for-profit organizations associated in some way with education</t>
+  </si>
+  <si>
+    <t>P-12 Educator</t>
+  </si>
+  <si>
+    <t>Teachers, Principals, assistant principals, superintendents, district-level directorsTechnology coaches, instructional coaches, curriculum facilitators or developers, professional development coordinators, including media specialist &amp; librarians, other concerned with P-12</t>
   </si>
 </sst>
 </file>
@@ -491,20 +452,20 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -534,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -542,10 +503,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -553,131 +514,91 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1">
-        <v>10</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="1">
-        <v>11</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="1">
-        <v>12</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="1">
-        <v>13</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="1">
-        <v>14</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="1">
-        <v>15</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="1">
-        <v>16</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
